--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori2/67/word_level_predictions_67.xlsx
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G250" s="2" t="b">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="L250" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17593,11 +17593,11 @@
         </is>
       </c>
       <c r="I330" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K330" s="2" t="b">
@@ -17633,7 +17633,7 @@
       </c>
       <c r="F331" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G331" s="2" t="b">
@@ -17645,11 +17645,11 @@
         </is>
       </c>
       <c r="I331" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J331" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K331" s="2" t="b">
@@ -17657,7 +17657,7 @@
       </c>
       <c r="L331" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F332" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G332" s="2" t="b">
@@ -17697,11 +17697,11 @@
         </is>
       </c>
       <c r="I332" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J332" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K332" s="2" t="b">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="L332" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17737,7 +17737,7 @@
       </c>
       <c r="F333" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G333" s="2" t="b">
@@ -17749,11 +17749,11 @@
         </is>
       </c>
       <c r="I333" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J333" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K333" s="2" t="b">
@@ -17761,7 +17761,7 @@
       </c>
       <c r="L333" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23954,366 +23954,366 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="2" t="n">
+      <c r="A453" t="n">
         <v>37</v>
       </c>
-      <c r="B453" s="2" t="inlineStr">
+      <c r="B453" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" s="2" t="inlineStr">
+      <c r="C453" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" s="2" t="n">
+      <c r="D453" t="n">
         <v>8</v>
       </c>
-      <c r="E453" s="2" t="inlineStr">
+      <c r="E453" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" s="2" t="inlineStr">
+      <c r="F453" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G453" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J453" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K453" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L453" s="2" t="inlineStr">
+      <c r="G453" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K453" t="b">
+        <v>1</v>
+      </c>
+      <c r="L453" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="2" t="n">
+      <c r="A454" t="n">
         <v>37</v>
       </c>
-      <c r="B454" s="2" t="inlineStr">
+      <c r="B454" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" s="2" t="inlineStr">
+      <c r="C454" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" s="2" t="n">
+      <c r="D454" t="n">
         <v>9</v>
       </c>
-      <c r="E454" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G454" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J454" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K454" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L454" s="2" t="inlineStr">
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G454" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K454" t="b">
+        <v>1</v>
+      </c>
+      <c r="L454" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="2" t="n">
+      <c r="A455" t="n">
         <v>37</v>
       </c>
-      <c r="B455" s="2" t="inlineStr">
+      <c r="B455" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" s="2" t="inlineStr">
+      <c r="C455" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" s="2" t="n">
+      <c r="D455" t="n">
         <v>10</v>
       </c>
-      <c r="E455" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G455" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J455" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K455" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L455" s="2" t="inlineStr">
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G455" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" t="b">
+        <v>1</v>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K455" t="b">
+        <v>1</v>
+      </c>
+      <c r="L455" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="2" t="n">
+      <c r="A456" t="n">
         <v>37</v>
       </c>
-      <c r="B456" s="2" t="inlineStr">
+      <c r="B456" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" s="2" t="inlineStr">
+      <c r="C456" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" s="2" t="n">
+      <c r="D456" t="n">
         <v>11</v>
       </c>
-      <c r="E456" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G456" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J456" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K456" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L456" s="2" t="inlineStr">
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G456" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" t="b">
+        <v>1</v>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K456" t="b">
+        <v>1</v>
+      </c>
+      <c r="L456" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>37</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
+      <c r="D457" t="n">
         <v>12</v>
       </c>
-      <c r="E457" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L457" s="2" t="inlineStr">
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" t="n">
         <v>37</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B458" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
+      <c r="C458" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" s="2" t="n">
+      <c r="D458" t="n">
         <v>13</v>
       </c>
-      <c r="E458" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L458" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" t="n">
         <v>37</v>
       </c>
-      <c r="B459" s="2" t="inlineStr">
+      <c r="B459" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" s="2" t="inlineStr">
+      <c r="C459" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" s="2" t="n">
+      <c r="D459" t="n">
         <v>14</v>
       </c>
-      <c r="E459" s="2" t="inlineStr">
+      <c r="E459" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L459" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G459" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K459" t="b">
+        <v>1</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori2/67/word_level_predictions_67.xlsx
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G250" s="2" t="b">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="L250" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17593,11 +17593,11 @@
         </is>
       </c>
       <c r="I330" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J330" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K330" s="2" t="b">
@@ -17633,7 +17633,7 @@
       </c>
       <c r="F331" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G331" s="2" t="b">
@@ -17645,11 +17645,11 @@
         </is>
       </c>
       <c r="I331" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J331" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K331" s="2" t="b">
@@ -17657,7 +17657,7 @@
       </c>
       <c r="L331" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F332" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G332" s="2" t="b">
@@ -17697,11 +17697,11 @@
         </is>
       </c>
       <c r="I332" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J332" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K332" s="2" t="b">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="L332" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17737,7 +17737,7 @@
       </c>
       <c r="F333" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G333" s="2" t="b">
@@ -17749,11 +17749,11 @@
         </is>
       </c>
       <c r="I333" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K333" s="2" t="b">
@@ -17761,7 +17761,7 @@
       </c>
       <c r="L333" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -23954,366 +23954,366 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="n">
+      <c r="A453" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B453" t="inlineStr">
+      <c r="B453" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" t="inlineStr">
+      <c r="C453" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" t="n">
+      <c r="D453" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E453" t="inlineStr">
+      <c r="E453" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" t="inlineStr">
+      <c r="F453" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G453" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" t="b">
-        <v>1</v>
-      </c>
-      <c r="J453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K453" t="b">
-        <v>1</v>
-      </c>
-      <c r="L453" t="inlineStr">
+      <c r="G453" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J453" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K453" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L453" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="n">
+      <c r="A454" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B454" t="inlineStr">
+      <c r="B454" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" t="inlineStr">
+      <c r="C454" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" t="n">
+      <c r="D454" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G454" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" t="b">
-        <v>1</v>
-      </c>
-      <c r="J454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K454" t="b">
-        <v>1</v>
-      </c>
-      <c r="L454" t="inlineStr">
+      <c r="E454" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G454" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J454" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K454" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L454" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="n">
+      <c r="A455" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B455" t="inlineStr">
+      <c r="B455" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr">
+      <c r="C455" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" t="n">
+      <c r="D455" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G455" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" t="b">
-        <v>1</v>
-      </c>
-      <c r="J455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K455" t="b">
-        <v>1</v>
-      </c>
-      <c r="L455" t="inlineStr">
+      <c r="E455" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G455" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J455" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K455" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L455" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="n">
+      <c r="A456" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B456" t="inlineStr">
+      <c r="B456" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr">
+      <c r="C456" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" t="n">
+      <c r="D456" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G456" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" t="b">
-        <v>1</v>
-      </c>
-      <c r="J456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K456" t="b">
-        <v>1</v>
-      </c>
-      <c r="L456" t="inlineStr">
+      <c r="E456" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G456" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J456" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K456" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L456" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" t="n">
+      <c r="D457" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
+      <c r="E457" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" t="n">
+      <c r="D458" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E458" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="n">
+      <c r="A459" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B459" t="inlineStr">
+      <c r="B459" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr">
+      <c r="C459" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" t="n">
+      <c r="D459" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E459" t="inlineStr">
+      <c r="E459" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G459" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K459" t="b">
-        <v>1</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F459" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J459" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L459" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
